--- a/branches/wb-branch/CodeSystem-hiv-transmission-route.xlsx
+++ b/branches/wb-branch/CodeSystem-hiv-transmission-route.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-11-01T12:01:37+00:00</t>
+    <t>2022-11-01T12:03:28+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
